--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1246680.303258843</v>
+        <v>1280875.668465721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453907</v>
+        <v>5562152.400446145</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668069</v>
+        <v>4028287.523710872</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7253535.925651656</v>
+        <v>7669162.962197971</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.20067914085034</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -671,10 +673,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>207.0284809878297</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -899,13 +901,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>270.4830255429362</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>404.4320794037411</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -914,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>58.11593919665214</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>139.9195525189284</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>16.55447303928995</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9202602248441235</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.840778094585287</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>59.22208237405571</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.42520756919171</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.06736062834964</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>75.76703723103812</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>325.8567232380378</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2239,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>122.1623642583279</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>109.0153965500894</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2369,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2378,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>157.4229911737221</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2488,10 +2490,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>37.14022766411915</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>58.11593919665221</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2558,22 +2560,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>145.8439859988529</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2855,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>308.3558640927702</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="30">
@@ -2959,16 +2961,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3035,19 +3037,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>28.0149076090946</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>12.68843489334793</v>
       </c>
     </row>
     <row r="35">
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W37" t="n">
-        <v>262.5811302569446</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>343.2559819443612</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>28.01490760909618</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3721,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3748,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>77.38753395977866</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>162.683688896986</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>103.2794232765808</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3982,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>84.32427723593015</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5329869070205</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>43.36161148535022</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1304.082459863683</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C2" t="n">
-        <v>893.957869176953</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D2" t="n">
-        <v>893.957869176953</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E2" t="n">
-        <v>479.6176536938497</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F2" t="n">
-        <v>58.5872416475372</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L2" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.195756848048</v>
+        <v>1719.270644700418</v>
       </c>
       <c r="N2" t="n">
-        <v>1496.195756848048</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O2" t="n">
-        <v>2139.826613265153</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P2" t="n">
-        <v>2668.983311184305</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="W2" t="n">
-        <v>2195.764226848509</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.120829017462</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.184155965552</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>909.122464591533</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M3" t="n">
-        <v>909.122464591533</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N3" t="n">
-        <v>1634.139579979806</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="O3" t="n">
-        <v>2338.0966705257</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P3" t="n">
-        <v>2899.80256301423</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1357.420359404569</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1074.622211950693</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>800.7364668902148</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>521.6668023990892</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>283.3229402587725</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.5872416475372</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2296.93441865923</v>
+        <v>2517.150449389417</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.8098279725</v>
+        <v>2107.025858702687</v>
       </c>
       <c r="D5" t="n">
-        <v>1613.594650656403</v>
+        <v>1702.561928795748</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.254435173299</v>
+        <v>1288.221713312645</v>
       </c>
       <c r="F5" t="n">
-        <v>778.224023126987</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4957390198192</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L5" t="n">
-        <v>1309.338142568815</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M5" t="n">
-        <v>1309.338142568815</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N5" t="n">
-        <v>2034.355257957088</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O5" t="n">
-        <v>2359.648738768144</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V5" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W5" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="X5" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="Y5" t="n">
-        <v>2707.155598323719</v>
+        <v>2927.371629053907</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>707.2063554754692</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>1193.526080325524</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M6" t="n">
-        <v>1193.526080325524</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N6" t="n">
-        <v>1193.526080325524</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O6" t="n">
-        <v>1193.526080325524</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P6" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1090.278014938507</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>919.1846425002236</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>759.6899978231336</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>598.7791826914531</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>434.1480568020444</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>266.8976657275878</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>117.2902105330444</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1502.713419943787</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>1502.713419943787</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>1502.713419943787</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W7" t="n">
-        <v>1502.713419943787</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X7" t="n">
-        <v>1502.713419943787</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y7" t="n">
-        <v>1277.977721332551</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.021710629071</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C8" t="n">
-        <v>1333.897119942341</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D8" t="n">
-        <v>1333.897119942341</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E8" t="n">
-        <v>919.556904459238</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F8" t="n">
-        <v>778.224023126987</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G8" t="n">
-        <v>369.4957390198192</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>124.188191493897</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="L8" t="n">
-        <v>1563.523614036569</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M8" t="n">
-        <v>1563.523614036569</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N8" t="n">
-        <v>1563.523614036569</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O8" t="n">
-        <v>2079.044377662417</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P8" t="n">
-        <v>2608.201075581568</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W8" t="n">
-        <v>2545.601781512029</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X8" t="n">
-        <v>2144.958383680981</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.021710629071</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>489.5689897796294</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>489.5689897796294</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N9" t="n">
-        <v>489.5689897796294</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O9" t="n">
-        <v>1193.526080325524</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X10" t="n">
-        <v>58.5872416475372</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2117.27467387779</v>
+        <v>1723.675065350382</v>
       </c>
       <c r="C11" t="n">
-        <v>1707.15008319106</v>
+        <v>1313.550474663652</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.686153284121</v>
+        <v>909.0865447567129</v>
       </c>
       <c r="E11" t="n">
-        <v>888.3459378010175</v>
+        <v>494.7463292736096</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O11" t="n">
-        <v>2864.843728653426</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3669.07417142618</v>
       </c>
       <c r="V11" t="n">
-        <v>2929.36208237686</v>
+        <v>3319.236616762661</v>
       </c>
       <c r="W11" t="n">
-        <v>2929.36208237686</v>
+        <v>2935.476315897829</v>
       </c>
       <c r="X11" t="n">
-        <v>2928.432526594189</v>
+        <v>2534.832918066782</v>
       </c>
       <c r="Y11" t="n">
-        <v>2527.495853542279</v>
+        <v>2133.896245014872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M12" t="n">
-        <v>676.1022315638701</v>
+        <v>1577.781169841152</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1577.781169841152</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1708.546389770622</v>
+        <v>2141.333428340969</v>
       </c>
       <c r="C14" t="n">
-        <v>1298.421799083892</v>
+        <v>1731.20883765424</v>
       </c>
       <c r="D14" t="n">
-        <v>893.957869176953</v>
+        <v>1326.7449077473</v>
       </c>
       <c r="E14" t="n">
-        <v>479.6176536938497</v>
+        <v>912.4046922641969</v>
       </c>
       <c r="F14" t="n">
-        <v>58.5872416475372</v>
+        <v>491.3742802178845</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>82.64599611071662</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>850.932214224331</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1563.523614036569</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M14" t="n">
-        <v>1964.570219164463</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N14" t="n">
-        <v>1964.570219164463</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O14" t="n">
-        <v>2608.201075581568</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2869.541797150541</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>2519.704242487022</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W14" t="n">
-        <v>2519.704242487022</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X14" t="n">
-        <v>2519.704242487022</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y14" t="n">
-        <v>2118.767569435112</v>
+        <v>2551.554608005459</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.0193557949199</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5540,13 +5542,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
         <v>4144.752941388363</v>
@@ -5592,22 +5594,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>704.368908940975</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>704.368908940975</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6046680222891</v>
+        <v>646.1285494761452</v>
       </c>
       <c r="C19" t="n">
-        <v>122.6046680222891</v>
+        <v>646.1285494761452</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>486.6339047990552</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>640.0181946537314</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W19" t="n">
-        <v>360.9485301626057</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X19" t="n">
-        <v>122.6046680222891</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.6046680222891</v>
+        <v>646.1285494761452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
         <v>1435.775802995229</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3689.386207608628</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C22" t="n">
-        <v>3689.386207608628</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3689.386207608628</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3689.386207608628</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>4150.971659063151</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>3877.085914002672</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>3877.085914002672</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X22" t="n">
-        <v>3877.085914002672</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y22" t="n">
-        <v>3877.085914002672</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
         <v>2139.066799289355</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3788.915946046752</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C25" t="n">
-        <v>3617.822573608469</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D25" t="n">
-        <v>3458.327928931379</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E25" t="n">
-        <v>3297.417113799698</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T25" t="n">
-        <v>4624.669503052231</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U25" t="n">
-        <v>4341.871355598356</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V25" t="n">
-        <v>4067.985610537878</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W25" t="n">
-        <v>3788.915946046752</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X25" t="n">
-        <v>3788.915946046752</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y25" t="n">
-        <v>3788.915946046752</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211426</v>
+        <v>516.4015458379855</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>516.4015458379855</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>356.9069011608955</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>356.9069011608955</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>356.9069011608955</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>356.9069011608955</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W28" t="n">
-        <v>4662.18488453114</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="X28" t="n">
-        <v>4423.841022390823</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="Y28" t="n">
-        <v>4409.819544605471</v>
+        <v>516.4015458379855</v>
       </c>
     </row>
     <row r="29">
@@ -6488,22 +6490,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431251</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y29" t="n">
         <v>2959.412569640574</v>
@@ -6543,19 +6545,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6643,28 +6645,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>4634.555243216706</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>4634.555243216706</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>4634.555243216706</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U31" t="n">
-        <v>4634.555243216706</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V31" t="n">
-        <v>4634.555243216706</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W31" t="n">
-        <v>4634.555243216706</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6685,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6780,19 +6782,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3565.989880074963</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C34" t="n">
-        <v>3565.989880074963</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D34" t="n">
-        <v>3565.989880074963</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E34" t="n">
-        <v>3565.989880074963</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F34" t="n">
         <v>3565.989880074963</v>
@@ -6880,28 +6882,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U34" t="n">
-        <v>3868.173511609275</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="V34" t="n">
-        <v>3594.287766548796</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="W34" t="n">
-        <v>3565.989880074963</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="X34" t="n">
-        <v>3565.989880074963</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="Y34" t="n">
-        <v>3565.989880074963</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.8317148059963</v>
+        <v>3463.374005025663</v>
       </c>
       <c r="C37" t="n">
-        <v>252.7383423677128</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>1339.844446857597</v>
+        <v>4393.222936662385</v>
       </c>
       <c r="W37" t="n">
-        <v>1074.610981951593</v>
+        <v>4114.153272171259</v>
       </c>
       <c r="X37" t="n">
-        <v>836.267119811276</v>
+        <v>3875.809410030943</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.5314212000407</v>
+        <v>3651.073711419707</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W40" t="n">
-        <v>554.7454763291312</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X40" t="n">
-        <v>554.7454763291312</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>554.7454763291312</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1360.073272570373</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C41" t="n">
-        <v>949.9486818836432</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D41" t="n">
-        <v>545.4847519767037</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>467.315525754705</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>669.8397601674739</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M41" t="n">
-        <v>669.8397601674739</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.856875555747</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W41" t="n">
-        <v>2571.87452311782</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X41" t="n">
-        <v>2171.231125286773</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1770.294452234863</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="M42" t="n">
-        <v>676.1022315638701</v>
+        <v>2482.283746208924</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.119346952143</v>
+        <v>3355.941838320542</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>3355.941838320542</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>3355.941838320542</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>654.4087236689153</v>
+        <v>3078.176256563083</v>
       </c>
       <c r="C43" t="n">
-        <v>483.3153512306318</v>
+        <v>2907.082884124799</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8207065535418</v>
+        <v>2747.588239447709</v>
       </c>
       <c r="E43" t="n">
-        <v>162.9098914218613</v>
+        <v>2586.677424316029</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9098914218613</v>
+        <v>2586.677424316029</v>
       </c>
       <c r="G43" t="n">
-        <v>162.9098914218613</v>
+        <v>2422.350465834225</v>
       </c>
       <c r="H43" t="n">
-        <v>162.9098914218613</v>
+        <v>2272.743010639681</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3600.523143040257</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3600.523143040257</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>3360.974404016959</v>
       </c>
       <c r="U43" t="n">
-        <v>1305.187990814512</v>
+        <v>3078.176256563083</v>
       </c>
       <c r="V43" t="n">
-        <v>1305.187990814512</v>
+        <v>3078.176256563083</v>
       </c>
       <c r="W43" t="n">
-        <v>1305.187990814512</v>
+        <v>3078.176256563083</v>
       </c>
       <c r="X43" t="n">
-        <v>1066.844128674195</v>
+        <v>3078.176256563083</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.1084300629597</v>
+        <v>3078.176256563083</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1376.956369536589</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>966.831778849859</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>966.831778849859</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>552.4915633667557</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>850.932214224331</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>1575.949329612604</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>2300.966445000877</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O44" t="n">
-        <v>2888.805436687295</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>2188.114222252988</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.114222252988</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1787.177549201078</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>927.3835676992471</v>
       </c>
       <c r="M45" t="n">
-        <v>676.1022315638701</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="N45" t="n">
-        <v>1401.119346952143</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.7442372242252</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="C46" t="n">
-        <v>211.6508647859417</v>
+        <v>449.3970417521223</v>
       </c>
       <c r="D46" t="n">
-        <v>58.5872416475372</v>
+        <v>449.3970417521223</v>
       </c>
       <c r="E46" t="n">
-        <v>58.5872416475372</v>
+        <v>405.5974341911624</v>
       </c>
       <c r="F46" t="n">
-        <v>58.5872416475372</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1316.321651823697</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T46" t="n">
-        <v>1316.321651823697</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U46" t="n">
-        <v>1033.523504369821</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V46" t="n">
-        <v>1033.523504369821</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W46" t="n">
-        <v>1033.523504369821</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="X46" t="n">
-        <v>795.1796422295049</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="Y46" t="n">
-        <v>570.4439436182696</v>
+        <v>620.4904141904058</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>492.0819684488059</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
@@ -7997,10 +7999,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>353.0426641896123</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,16 +8063,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>82.62924912920522</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>785.533913987965</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>621.6393243851574</v>
@@ -8079,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>454.5193652629406</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>421.7690491723042</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>547.3465691139345</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>124.3056865520957</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>613.9178196922957</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
@@ -8535,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>491.4496229341745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,22 +8692,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>509.2990563003282</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8772,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>470.8725506506143</v>
       </c>
       <c r="M14" t="n">
-        <v>498.3878053943122</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9240,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>673.412716993023</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>363.0339661689075</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9486,10 +9488,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9954,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10428,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10826,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10908,10 +10910,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
@@ -11063,13 +11065,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>169.3167287809227</v>
+        <v>470.8725506506143</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>389.8785003677836</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>509.2990563003282</v>
       </c>
       <c r="O44" t="n">
-        <v>686.9665349049936</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>457.9947199791837</v>
       </c>
       <c r="M45" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.9182887269942</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22598,19 +22600,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>189.6084828649073</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,19 +22758,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>129.9362650649338</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.38802852210824</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>57.06664624006497</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>276.9005554069208</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>291.2449393592691</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23078,7 +23080,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23312,16 +23314,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>237.935413783795</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>395.7167036278929</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>298.9586343039739</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23549,19 +23551,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>195.2678044490293</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>82.6861730734062</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>128.8323376019694</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>83.5346697493256</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>54.06597461814528</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24136,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>40.82245037218671</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>126.9450269688241</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>222.499706682461</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>200.0130239689458</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>177.8444843222612</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.267394643745035</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>88.57144222862058</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="30">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.066646240065</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -24898,10 +24900,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>248.2640602371198</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>209.799906731775</v>
       </c>
     </row>
     <row r="35">
@@ -25366,13 +25368,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W37" t="n">
-        <v>13.69783758926974</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.083197172522887</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25558,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>134.9699070214185</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>332.8092793684935</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -25688,7 +25690,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>2.89419826672605</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>11.90316216013628</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>332.4958306899192</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -25925,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.366711323298603</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>115.9400954950135</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>545706.9170557699</v>
+        <v>617268.7310827741</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>545706.9170557699</v>
+        <v>617268.731082774</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>545706.9170557699</v>
+        <v>617268.7310827739</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>545706.9170557701</v>
+        <v>617268.7310827739</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>545706.9170557701</v>
+        <v>617268.7310827739</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>709639.2354609795</v>
+        <v>709639.2354609794</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>709639.2354609794</v>
+        <v>709639.2354609797</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>709639.2354609794</v>
+        <v>709639.2354609795</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>709639.2354609795</v>
+        <v>709639.2354609794</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709639.2354609794</v>
+        <v>709639.2354609795</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>709639.2354609795</v>
+        <v>709639.2354609794</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>545706.9170557699</v>
+        <v>617268.7310827739</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>545706.9170557699</v>
+        <v>617268.7310827739</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="C2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="D2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="E2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="F2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926174</v>
       </c>
       <c r="G2" t="n">
-        <v>304131.1009118484</v>
+        <v>304131.1009118483</v>
       </c>
       <c r="H2" t="n">
-        <v>304131.1009118484</v>
+        <v>304131.1009118483</v>
       </c>
       <c r="I2" t="n">
         <v>304131.1009118484</v>
       </c>
       <c r="J2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="K2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="L2" t="n">
         <v>304131.1009118484</v>
-      </c>
-      <c r="K2" t="n">
-        <v>304131.1009118484</v>
-      </c>
-      <c r="L2" t="n">
-        <v>304131.1009118485</v>
       </c>
       <c r="M2" t="n">
         <v>304131.1009118484</v>
       </c>
       <c r="N2" t="n">
-        <v>304131.1009118485</v>
+        <v>304131.1009118484</v>
       </c>
       <c r="O2" t="n">
-        <v>233874.3930239015</v>
+        <v>264543.7418926173</v>
       </c>
       <c r="P2" t="n">
-        <v>233874.3930239016</v>
+        <v>264543.7418926175</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="C4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="D4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863875</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
@@ -26442,10 +26444,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90236.9816882083</v>
+        <v>-134529.4214772878</v>
       </c>
       <c r="C6" t="n">
-        <v>155187.1705948869</v>
+        <v>174269.3201347561</v>
       </c>
       <c r="D6" t="n">
-        <v>155187.1705948868</v>
+        <v>174269.320134756</v>
       </c>
       <c r="E6" t="n">
-        <v>188814.7705948869</v>
+        <v>207896.920134756</v>
       </c>
       <c r="F6" t="n">
-        <v>188814.7705948869</v>
+        <v>207896.9201347559</v>
       </c>
       <c r="G6" t="n">
-        <v>113792.5783047165</v>
+        <v>165624.3663831977</v>
       </c>
       <c r="H6" t="n">
-        <v>232527.7627368305</v>
+        <v>232527.7627368303</v>
       </c>
       <c r="I6" t="n">
-        <v>232527.7627368305</v>
+        <v>232527.7627368304</v>
       </c>
       <c r="J6" t="n">
-        <v>40915.25956647759</v>
+        <v>-8563.830350906064</v>
       </c>
       <c r="K6" t="n">
         <v>232527.7627368305</v>
@@ -26552,16 +26554,16 @@
         <v>232527.7627368305</v>
       </c>
       <c r="M6" t="n">
-        <v>232527.7627368304</v>
+        <v>232527.7627368305</v>
       </c>
       <c r="N6" t="n">
-        <v>232527.7627368306</v>
+        <v>232527.7627368305</v>
       </c>
       <c r="O6" t="n">
-        <v>188814.7705948869</v>
+        <v>207896.9201347559</v>
       </c>
       <c r="P6" t="n">
-        <v>188814.7705948869</v>
+        <v>207896.920134756</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>398.7917439917604</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
@@ -34717,10 +34719,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>263.0088597904602</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26.51472531835618</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>732.340520594215</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>567.3796893823536</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>361.2291408058952</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>328.5792735465211</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>491.2320453030854</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>50.98209521878771</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>520.7280440665126</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>435.3350991233254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>416.3867655437089</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>375.3871525877695</v>
       </c>
       <c r="M14" t="n">
-        <v>405.0975809372667</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35899,7 +35901,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>309.8405727751575</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
@@ -37783,13 +37785,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>73.83133071807789</v>
+        <v>375.3871525877695</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>416.3867655437089</v>
       </c>
       <c r="O44" t="n">
-        <v>593.7767592792105</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>401.8801961683346</v>
       </c>
       <c r="M45" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1280875.668465721</v>
+        <v>1278367.316739809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446145</v>
+        <v>5562152.400446151</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>148.831797219676</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -667,10 +667,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>207.0284809878297</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>93.86998482510118</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -898,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>383.5961797044755</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>404.4320794037411</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>168.3859349296309</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>16.55447303929008</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>11.6986684852831</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>136.6868991713733</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>138.6875222853383</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>16.55447303928995</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>266.7126466508076</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1624,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>8.840778094585287</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>52.13510555207348</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>330.7262294157694</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.76703723103812</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>325.8567232380378</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>109.0153965500894</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>58.11593919665221</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.8439859988529</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2857,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.68843489334793</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>266.272328390067</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>42.43741174507654</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>12.33276238106388</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>338.1753487462616</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.683688896986</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>22.11028510146616</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>338.1753487462616</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36161148535022</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>234.8904158492961</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2443.311846829832</v>
+        <v>1607.941219300416</v>
       </c>
       <c r="C2" t="n">
-        <v>2033.187256143102</v>
+        <v>1197.816628613687</v>
       </c>
       <c r="D2" t="n">
-        <v>1628.723326236163</v>
+        <v>793.352698706747</v>
       </c>
       <c r="E2" t="n">
-        <v>1214.38311075306</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F2" t="n">
         <v>793.352698706747</v>
@@ -4333,22 +4333,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>611.8754183363367</v>
+        <v>438.3563450202853</v>
       </c>
       <c r="L2" t="n">
-        <v>1324.466818148575</v>
+        <v>1150.947744832523</v>
       </c>
       <c r="M2" t="n">
-        <v>1719.270644700418</v>
+        <v>1927.266335824277</v>
       </c>
       <c r="N2" t="n">
-        <v>2472.451661339036</v>
+        <v>2680.447352462895</v>
       </c>
       <c r="O2" t="n">
-        <v>3116.082517756141</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P2" t="n">
-        <v>3645.239215675292</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
         <v>3645.239215675292</v>
@@ -4357,25 +4357,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>3463.589377311716</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U2" t="n">
-        <v>3463.589377311716</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V2" t="n">
-        <v>3463.589377311716</v>
+        <v>2943.616739754949</v>
       </c>
       <c r="W2" t="n">
-        <v>3463.589377311716</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="X2" t="n">
-        <v>3254.469699546231</v>
+        <v>2159.21304105907</v>
       </c>
       <c r="Y2" t="n">
-        <v>2853.533026494321</v>
+        <v>1758.27636800716</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>734.8040891465854</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M3" t="n">
-        <v>734.8040891465854</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N3" t="n">
-        <v>1558.499220589267</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O3" t="n">
-        <v>1558.499220589267</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P3" t="n">
         <v>2120.205113077797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4515,25 +4515,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>1133.924898274182</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>860.0391532137037</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>580.969488722578</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2517.150449389417</v>
+        <v>1382.909196030019</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.025858702687</v>
+        <v>995.4383074396397</v>
       </c>
       <c r="D5" t="n">
-        <v>1702.561928795748</v>
+        <v>995.4383074396397</v>
       </c>
       <c r="E5" t="n">
-        <v>1288.221713312645</v>
+        <v>581.0980919565365</v>
       </c>
       <c r="F5" t="n">
-        <v>879.7044613896738</v>
+        <v>160.067679910224</v>
       </c>
       <c r="G5" t="n">
-        <v>470.976177282506</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H5" t="n">
         <v>160.067679910224</v>
@@ -4570,22 +4570,22 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>327.9013886950514</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.492788507289</v>
+        <v>1472.108751627815</v>
       </c>
       <c r="M5" t="n">
-        <v>1398.109637905126</v>
+        <v>2248.427342619569</v>
       </c>
       <c r="N5" t="n">
-        <v>2151.290654543744</v>
+        <v>3001.608359258187</v>
       </c>
       <c r="O5" t="n">
-        <v>2794.921510960849</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="P5" t="n">
-        <v>3324.07820888</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q5" t="n">
         <v>3645.239215675292</v>
@@ -4603,16 +4603,16 @@
         <v>3328.308302105817</v>
       </c>
       <c r="V5" t="n">
-        <v>3328.308302105817</v>
+        <v>2978.470747442298</v>
       </c>
       <c r="W5" t="n">
-        <v>3328.308302105817</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="X5" t="n">
-        <v>3328.308302105817</v>
+        <v>2194.067048746419</v>
       </c>
       <c r="Y5" t="n">
-        <v>2927.371629053907</v>
+        <v>1793.130375694509</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>734.8040891465854</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>734.8040891465854</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N6" t="n">
-        <v>1416.248022531903</v>
+        <v>947.374009338915</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.205113077797</v>
+        <v>1651.331099884809</v>
       </c>
       <c r="P6" t="n">
         <v>2120.205113077797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.71591722729714</v>
+        <v>412.0596807400372</v>
       </c>
       <c r="C7" t="n">
-        <v>73.71591722729714</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="D7" t="n">
-        <v>73.71591722729714</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="E7" t="n">
-        <v>73.71591722729714</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="F7" t="n">
-        <v>73.71591722729714</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G7" t="n">
         <v>73.71591722729714</v>
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U7" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W7" t="n">
-        <v>256.1480313746799</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="X7" t="n">
-        <v>73.71591722729714</v>
+        <v>636.7953793512725</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.71591722729714</v>
+        <v>412.0596807400372</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.396755289059</v>
+        <v>2120.935325405591</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.272164602329</v>
+        <v>1710.810734718861</v>
       </c>
       <c r="D8" t="n">
-        <v>925.8082346953897</v>
+        <v>1306.346804811922</v>
       </c>
       <c r="E8" t="n">
-        <v>511.4680192122864</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="F8" t="n">
-        <v>90.43760716597399</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G8" t="n">
-        <v>90.43760716597399</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>124.188191493897</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>662.3476926029365</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>662.3476926029365</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1438.66628359469</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N8" t="n">
-        <v>2191.847300233308</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O8" t="n">
-        <v>2835.478156650413</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P8" t="n">
-        <v>3364.634854569565</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
         <v>3685.795861364857</v>
@@ -4831,25 +4831,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3685.795861364857</v>
+        <v>3538.697949305137</v>
       </c>
       <c r="U8" t="n">
-        <v>3685.795861364857</v>
+        <v>3281.637457564647</v>
       </c>
       <c r="V8" t="n">
-        <v>3335.958306701338</v>
+        <v>2931.799902901128</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.198005836506</v>
+        <v>2931.799902901128</v>
       </c>
       <c r="X8" t="n">
-        <v>2551.554608005459</v>
+        <v>2531.15650507008</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.617934953549</v>
+        <v>2531.15650507008</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L9" t="n">
-        <v>73.71591722729714</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M9" t="n">
-        <v>916.6929979218638</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="N9" t="n">
-        <v>1416.248022531903</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
         <v>73.71591722729714</v>
@@ -4989,25 +4989,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T10" t="n">
-        <v>1603.114813848147</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U10" t="n">
-        <v>1603.114813848147</v>
+        <v>1039.106731784181</v>
       </c>
       <c r="V10" t="n">
-        <v>1603.114813848147</v>
+        <v>765.2209867237025</v>
       </c>
       <c r="W10" t="n">
-        <v>1603.114813848147</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="X10" t="n">
-        <v>1575.485172533713</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y10" t="n">
-        <v>1350.749473922478</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1723.675065350382</v>
+        <v>1868.027825899437</v>
       </c>
       <c r="C11" t="n">
-        <v>1313.550474663652</v>
+        <v>1457.903235212707</v>
       </c>
       <c r="D11" t="n">
-        <v>909.0865447567129</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E11" t="n">
-        <v>494.7463292736096</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F11" t="n">
-        <v>73.71591722729714</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G11" t="n">
         <v>73.71591722729714</v>
@@ -5044,22 +5044,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>611.8754183363367</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L11" t="n">
-        <v>1324.466818148575</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M11" t="n">
-        <v>2100.785409140329</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N11" t="n">
-        <v>2513.0083070286</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O11" t="n">
-        <v>3156.639163445705</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P11" t="n">
-        <v>3685.795861364857</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q11" t="n">
         <v>3685.795861364857</v>
@@ -5071,22 +5071,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U11" t="n">
-        <v>3669.07417142618</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.236616762661</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="W11" t="n">
-        <v>2935.476315897829</v>
+        <v>3079.829076446884</v>
       </c>
       <c r="X11" t="n">
-        <v>2534.832918066782</v>
+        <v>2679.185678615837</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.896245014872</v>
+        <v>2278.249005563927</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K12" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L12" t="n">
-        <v>734.8040891465854</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.781169841152</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.781169841152</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R12" t="n">
         <v>2120.205113077797</v>
@@ -5223,25 +5223,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
         <v>73.71591722729714</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2141.333428340969</v>
+        <v>2302.593969931797</v>
       </c>
       <c r="C14" t="n">
-        <v>1731.20883765424</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D14" t="n">
-        <v>1326.7449077473</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E14" t="n">
-        <v>912.4046922641969</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F14" t="n">
-        <v>491.3742802178845</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>82.64599611071662</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
         <v>73.71591722729714</v>
@@ -5284,19 +5284,19 @@
         <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>983.5086993982285</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.827290389982</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>2513.0083070286</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>3156.639163445705</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="P14" t="n">
-        <v>3685.795861364857</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q14" t="n">
         <v>3685.795861364857</v>
@@ -5308,22 +5308,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U14" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V14" t="n">
-        <v>3335.958306701338</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="W14" t="n">
-        <v>2952.198005836506</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="X14" t="n">
-        <v>2551.554608005459</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="Y14" t="n">
-        <v>2551.554608005459</v>
+        <v>2712.815149596287</v>
       </c>
     </row>
     <row r="15">
@@ -5366,19 +5366,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>916.6929979218638</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N15" t="n">
-        <v>1790.351090033482</v>
+        <v>947.374009338915</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
         <v>2120.205113077797</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.71591722729714</v>
+        <v>714.6995340627957</v>
       </c>
       <c r="C16" t="n">
-        <v>73.71591722729714</v>
+        <v>714.6995340627957</v>
       </c>
       <c r="D16" t="n">
-        <v>73.71591722729714</v>
+        <v>555.2048893857058</v>
       </c>
       <c r="E16" t="n">
-        <v>73.71591722729714</v>
+        <v>555.2048893857058</v>
       </c>
       <c r="F16" t="n">
-        <v>73.71591722729714</v>
+        <v>390.573763496297</v>
       </c>
       <c r="G16" t="n">
-        <v>73.71591722729714</v>
+        <v>223.3233724218405</v>
       </c>
       <c r="H16" t="n">
         <v>73.71591722729714</v>
@@ -5460,28 +5460,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1550.453091068275</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1550.453091068275</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1267.654943614399</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>993.7691985539213</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>714.6995340627957</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>714.6995340627957</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.71591722729714</v>
+        <v>714.6995340627957</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.033635947823</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.1285494761452</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>646.1285494761452</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>486.6339047990552</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5706,19 +5706,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1109.208110227697</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1109.208110227697</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>870.8642480873805</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.1285494761452</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1863.671737910768</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>786.8890373059935</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>676.772475134186</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.0367765229507</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.369875986873</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U25" t="n">
-        <v>1537.369875986873</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>1537.369875986873</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>1537.369875986873</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>1478.666907101365</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>1253.93120849013</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>874.0699105066985</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.4015458379855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>516.4015458379855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>356.9069011608955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>356.9069011608955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>356.9069011608955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>356.9069011608955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1015.022989509699</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>741.1372444492208</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>741.1372444492208</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>741.1372444492208</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.4015458379855</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3314.038978003258</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.13812587521</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N30" t="n">
-        <v>1210.13812587521</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3401.747935779044</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3240.837120647363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6779,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4422.636145507842</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4422.636145507842</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4422.636145507842</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4422.636145507842</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
         <v>93.2436976906228</v>
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3463.374005025663</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3292.280632587379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4393.222936662385</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4114.153272171259</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>3875.809410030943</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>3651.073711419707</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.844444016082</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3450.08414315125</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3049.440745320202</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>3084.569701873628</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>3958.227793985246</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7362,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1579.776521841699</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1296.978374387823</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1023.092629327345</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>744.0229648362191</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>505.6791026959025</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.9434040846672</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2132.40334945755</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C41" t="n">
-        <v>1722.27875877082</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D41" t="n">
         <v>1317.814828863881</v>
@@ -7411,22 +7411,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>261.9144963961027</v>
       </c>
       <c r="K41" t="n">
-        <v>611.8754183363367</v>
+        <v>800.0739975051422</v>
       </c>
       <c r="L41" t="n">
-        <v>983.5086993982285</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M41" t="n">
-        <v>1759.827290389982</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N41" t="n">
-        <v>2513.0083070286</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O41" t="n">
-        <v>3156.639163445705</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P41" t="n">
         <v>3685.795861364857</v>
@@ -7447,16 +7447,16 @@
         <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>3685.795861364857</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W41" t="n">
-        <v>3344.204600004997</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X41" t="n">
-        <v>2943.561202173949</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y41" t="n">
-        <v>2542.624529122039</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>1639.306665514357</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>1639.306665514357</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L42" t="n">
-        <v>1639.306665514357</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M42" t="n">
-        <v>2482.283746208924</v>
+        <v>1770.594027403785</v>
       </c>
       <c r="N42" t="n">
-        <v>3355.941838320542</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O42" t="n">
-        <v>3355.941838320542</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>3355.941838320542</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3078.176256563083</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2907.082884124799</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2747.588239447709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2586.677424316029</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.677424316029</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2422.350465834225</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2272.743010639681</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3600.523143040257</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3600.523143040257</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3360.974404016959</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3078.176256563083</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>3078.176256563083</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>3078.176256563083</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>3078.176256563083</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3078.176256563083</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.40334945755</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.27875877082</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.814828863881</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E44" t="n">
         <v>903.4746133807774</v>
@@ -7654,22 +7654,22 @@
         <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>1324.466818148575</v>
+        <v>942.9520537086636</v>
       </c>
       <c r="M44" t="n">
-        <v>2100.785409140329</v>
+        <v>1719.270644700418</v>
       </c>
       <c r="N44" t="n">
-        <v>2513.0083070286</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O44" t="n">
-        <v>3156.639163445705</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P44" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q44" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R44" t="n">
         <v>3685.795861364857</v>
@@ -7684,16 +7684,16 @@
         <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W44" t="n">
-        <v>3344.204600004997</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.561202173949</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.624529122039</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>529.5221734925958</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L45" t="n">
-        <v>927.3835676992471</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M45" t="n">
-        <v>1770.360648393814</v>
+        <v>1770.594027403785</v>
       </c>
       <c r="N45" t="n">
-        <v>1770.360648393814</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O45" t="n">
-        <v>1770.360648393814</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
-        <v>1770.360648393814</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
         <v>2120.205113077797</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>620.4904141904058</v>
+        <v>400.4609529788437</v>
       </c>
       <c r="C46" t="n">
-        <v>449.3970417521223</v>
+        <v>400.4609529788437</v>
       </c>
       <c r="D46" t="n">
-        <v>449.3970417521223</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="E46" t="n">
-        <v>405.5974341911624</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="F46" t="n">
         <v>240.9663083017537</v>
@@ -7833,25 +7833,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1416.723045728058</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1177.17430670476</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U46" t="n">
-        <v>894.3761592508838</v>
+        <v>1365.851767535727</v>
       </c>
       <c r="V46" t="n">
-        <v>620.4904141904058</v>
+        <v>1091.966022475249</v>
       </c>
       <c r="W46" t="n">
-        <v>620.4904141904058</v>
+        <v>812.8963579841234</v>
       </c>
       <c r="X46" t="n">
-        <v>620.4904141904058</v>
+        <v>812.8963579841234</v>
       </c>
       <c r="Y46" t="n">
-        <v>620.4904141904058</v>
+        <v>588.1606593728881</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>457.4600541105789</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>492.0819684488059</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
         <v>853.701196452193</v>
@@ -7996,10 +7996,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,19 +8063,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N3" t="n">
-        <v>885.2086776792871</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8218,13 +8218,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>707.6549554605463</v>
       </c>
       <c r="M5" t="n">
-        <v>454.5193652629406</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
         <v>853.701196452193</v>
@@ -8233,10 +8233,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8300,19 +8300,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>124.3056865520957</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>810.7969908134143</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8470,10 +8470,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>311.7699535792274</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8701,7 +8701,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>509.2990563003282</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>289.2271199129839</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>605.6544519663084</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>470.8725506506143</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8941,13 +8941,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>609.0164713738824</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9014,22 +9014,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>363.0339661689075</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>200.5303479970833</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9488,16 +9488,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>333.1092871546772</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>664.9610054731837</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -9977,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O30" t="n">
-        <v>429.3564034215989</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
@@ -10436,16 +10436,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.174398074769</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10925,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>263.4231662512933</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>470.8725506506143</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>406.3359041755803</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11159,7 +11159,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>389.8785003677836</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11302,13 +11302,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>429.906241873276</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>509.2990563003282</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11320,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>457.9947199791837</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>406.3359041755803</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11396,7 +11396,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>257.2871706481686</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,10 +22555,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>189.6084828649073</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>142.0904386938122</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>22.42716507538705</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.38802852210824</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22956,7 +22956,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130045</v>
+        <v>67.57448858928251</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23038,10 +23038,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>291.2449393592691</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>208.2857507273267</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>143.2832668079638</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>261.7317683225318</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23311,13 +23311,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>237.935413783795</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>139.310698129055</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>298.9586343039739</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23548,7 +23548,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>132.3927448868154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>49.19646844041375</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>83.5346697493256</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>54.06597461814528</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>126.9450269688241</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>177.8444843222612</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24618,10 +24618,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>2.267394643745035</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.799906731775</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4.874559219806258</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>388.0865282268061</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>41.74734910992146</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>2.89419826672605</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>388.0865282268061</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>41.74734910992146</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>115.9400954950135</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>45.07975013004096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>617268.7310827741</v>
+        <v>617268.731082774</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>617268.731082774</v>
+        <v>617268.7310827739</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>617268.7310827739</v>
+        <v>617268.731082774</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617268.7310827739</v>
+        <v>617268.731082774</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>617268.7310827739</v>
+        <v>617268.7310827738</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>709639.2354609794</v>
+        <v>709639.2354609795</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>709639.2354609797</v>
+        <v>709639.2354609796</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>709639.2354609795</v>
+        <v>709639.2354609796</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>709639.2354609794</v>
+        <v>709639.2354609796</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709639.2354609795</v>
+        <v>709639.2354609796</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>709639.2354609794</v>
+        <v>709639.2354609796</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>709639.2354609795</v>
+        <v>709639.2354609796</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>617268.7310827739</v>
+        <v>617268.731082774</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>264543.7418926175</v>
+      </c>
+      <c r="C2" t="n">
         <v>264543.7418926174</v>
-      </c>
-      <c r="C2" t="n">
-        <v>264543.7418926175</v>
       </c>
       <c r="D2" t="n">
         <v>264543.7418926174</v>
       </c>
       <c r="E2" t="n">
+        <v>264543.7418926174</v>
+      </c>
+      <c r="F2" t="n">
         <v>264543.7418926175</v>
       </c>
-      <c r="F2" t="n">
-        <v>264543.7418926174</v>
-      </c>
       <c r="G2" t="n">
-        <v>304131.1009118483</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="H2" t="n">
-        <v>304131.1009118483</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="I2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="J2" t="n">
         <v>304131.1009118484</v>
       </c>
-      <c r="J2" t="n">
-        <v>304131.1009118485</v>
-      </c>
       <c r="K2" t="n">
-        <v>304131.1009118485</v>
+        <v>304131.1009118484</v>
       </c>
       <c r="L2" t="n">
         <v>304131.1009118484</v>
@@ -26352,10 +26352,10 @@
         <v>304131.1009118484</v>
       </c>
       <c r="O2" t="n">
-        <v>264543.7418926173</v>
+        <v>264543.7418926175</v>
       </c>
       <c r="P2" t="n">
-        <v>264543.7418926175</v>
+        <v>264543.7418926174</v>
       </c>
     </row>
     <row r="3">
@@ -26426,13 +26426,13 @@
         <v>622.7246651156232</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7246651156232</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="F4" t="n">
         <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
@@ -26444,10 +26444,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446466</v>
@@ -26456,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
+        <v>622.7246651156233</v>
+      </c>
+      <c r="P4" t="n">
         <v>622.7246651156231</v>
-      </c>
-      <c r="P4" t="n">
-        <v>622.7246651156232</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134529.4214772878</v>
+        <v>-134898.5133033617</v>
       </c>
       <c r="C6" t="n">
-        <v>174269.3201347561</v>
+        <v>173900.228308682</v>
       </c>
       <c r="D6" t="n">
-        <v>174269.320134756</v>
+        <v>173900.228308682</v>
       </c>
       <c r="E6" t="n">
-        <v>207896.920134756</v>
+        <v>207527.828308682</v>
       </c>
       <c r="F6" t="n">
-        <v>207896.9201347559</v>
+        <v>207527.828308682</v>
       </c>
       <c r="G6" t="n">
-        <v>165624.3663831977</v>
+        <v>165443.7857905488</v>
       </c>
       <c r="H6" t="n">
-        <v>232527.7627368303</v>
+        <v>232347.1821441814</v>
       </c>
       <c r="I6" t="n">
-        <v>232527.7627368304</v>
+        <v>232347.1821441814</v>
       </c>
       <c r="J6" t="n">
-        <v>-8563.830350906064</v>
+        <v>-8744.410943555311</v>
       </c>
       <c r="K6" t="n">
-        <v>232527.7627368305</v>
+        <v>232347.1821441813</v>
       </c>
       <c r="L6" t="n">
-        <v>232527.7627368305</v>
+        <v>232347.1821441814</v>
       </c>
       <c r="M6" t="n">
-        <v>232527.7627368305</v>
+        <v>232347.1821441814</v>
       </c>
       <c r="N6" t="n">
-        <v>232527.7627368305</v>
+        <v>232347.1821441814</v>
       </c>
       <c r="O6" t="n">
-        <v>207896.9201347559</v>
+        <v>207527.828308682</v>
       </c>
       <c r="P6" t="n">
-        <v>207896.920134756</v>
+        <v>207527.828308682</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>368.3236644373617</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>398.7917439917604</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
         <v>760.7889056955737</v>
@@ -34716,10 +34716,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N3" t="n">
-        <v>832.0152842855372</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>612.1695573977014</v>
       </c>
       <c r="M5" t="n">
-        <v>361.2291408058952</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
         <v>760.7889056955737</v>
@@ -34953,10 +34953,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>50.98209521878771</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>717.5067663563688</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35190,10 +35190,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35421,7 +35421,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>416.3867655437089</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>199.1933155138319</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>547.9029729663084</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>375.3871525877695</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35661,13 +35661,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>515.8266957480993</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>309.8405727751575</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>278.8496521518734</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>607.3967217347663</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O30" t="n">
-        <v>371.6049244215989</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
@@ -37156,16 +37156,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363516</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>190.0995749179854</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>375.3871525877695</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>353.1425107818303</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>334.4208438104312</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>416.3867655437089</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38040,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>401.8801961683346</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>353.1425107818303</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
